--- a/Swagger-PET API Testing.xlsx
+++ b/Swagger-PET API Testing.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504"/>
+    <workbookView xWindow="96" yWindow="60" windowWidth="22932" windowHeight="9504" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Find Status -GET method" sheetId="2" r:id="rId1"/>
+    <sheet name="Update an existing pet - PUT" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>S. No.</t>
   </si>
@@ -96,6 +97,61 @@
 Request:
 EndPoint:https://petstore.swagger.io/v2/pet/findByStatus?status=1234.9
 Method: GET</t>
+  </si>
+  <si>
+    <t>S.NO</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Execpted Result</t>
+  </si>
+  <si>
+    <t>Validate the ID field in update the existing pet endpoint and retrival of the data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request:
+EndPoint:https://petstore.swagger.io/v2/pet
+Add body
+Method: PUT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status Code: 200
+Response Body Should have the below parameters:
+Updated ID number,name,photourls,tags,and status along with updated values. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retrival of data:
+EndPoint:https://petstore.swagger.io/v2/pet/610
+Method: GET
+</t>
+  </si>
+  <si>
+    <t>Validate the category field in update the existing pet endpoint and retrival of the data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status Code: 200
+Response Body Should have the below parameters:
+id,name,photourls,tags,and status along with updated values. </t>
+  </si>
+  <si>
+    <t>Validate the tag field in update the existing pet endpoint and retrival of the data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status Code: 200
+Response Body Should have the below parameters:
+id,name,photourls,tags,and status in sold along with updated values. </t>
+  </si>
+  <si>
+    <t>Validate the photoUrls field in update the existing pet endpoint and retrival of the data</t>
+  </si>
+  <si>
+    <t>Validate the name field in update the existing pet endpoint and retrival of the data</t>
+  </si>
+  <si>
+    <t>Validate the status field in update the existing pet endpoint and retrival of the data</t>
   </si>
 </sst>
 </file>
@@ -119,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -142,11 +198,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -154,6 +247,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -451,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -611,4 +720,188 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C4:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="41.109375" customWidth="1"/>
+    <col min="6" max="6" width="36.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6">
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="144">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="158.4">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="3:6" ht="144">
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="158.4">
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="3:6" ht="144">
+      <c r="C9" s="4">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" ht="158.4">
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="3:6" ht="144">
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="158.4">
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="3:6" ht="144">
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="158.4">
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="3:6" ht="144">
+      <c r="C15" s="4">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" ht="158.4">
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>